--- a/FME_fmw_files/LOOKUP_TABLES/BC_DefaultAttributeMapper.xlsx
+++ b/FME_fmw_files/LOOKUP_TABLES/BC_DefaultAttributeMapper.xlsx
@@ -44,40 +44,40 @@
     <t>default_key</t>
   </si>
   <si>
+    <t>p-t_license_fr</t>
+  </si>
+  <si>
+    <t>progress_code</t>
+  </si>
+  <si>
+    <t>Government of British Columbia</t>
+  </si>
+  <si>
+    <t>Gouvernement de la Colombie-Britannique</t>
+  </si>
+  <si>
+    <t>https://dl.dropboxusercontent.com/s/j53pn6zxp5487eo/BCLogo.jpg?dl=0</t>
+  </si>
+  <si>
+    <t>vector</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>p-t_license</t>
+  </si>
+  <si>
+    <t>Open Government Licence - British Columbia (https://www2.gov.bc.ca/gov/content/data/open-data/open-government-licence-bc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licence du gouvernement ouvert - Colombie-Britannique (https://www2.gov.bc.ca/gov/content/data/open-data/open-government-licence-bc) </t>
+  </si>
+  <si>
+    <t>onGoing</t>
+  </si>
+  <si>
     <t>default_value</t>
-  </si>
-  <si>
-    <t>p-t_license_fr</t>
-  </si>
-  <si>
-    <t>progress_code</t>
-  </si>
-  <si>
-    <t>Government of British Columbia</t>
-  </si>
-  <si>
-    <t>Gouvernement de la Colombie-Britannique</t>
-  </si>
-  <si>
-    <t>https://dl.dropboxusercontent.com/s/j53pn6zxp5487eo/BCLogo.jpg?dl=0</t>
-  </si>
-  <si>
-    <t>vector</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>p-t_license</t>
-  </si>
-  <si>
-    <t>Open Government Licence - British Columbia (https://www2.gov.bc.ca/gov/content/data/open-data/open-government-licence-bc)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Licence du gouvernement ouvert - Colombie-Britannique (https://www2.gov.bc.ca/gov/content/data/open-data/open-government-licence-bc) </t>
-  </si>
-  <si>
-    <t>onGoing</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD15"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,7 +412,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -420,7 +420,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -428,7 +428,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -436,7 +436,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -444,7 +444,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -452,31 +452,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/FME_fmw_files/LOOKUP_TABLES/BC_DefaultAttributeMapper.xlsx
+++ b/FME_fmw_files/LOOKUP_TABLES/BC_DefaultAttributeMapper.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="5610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10905" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="BC_DEFAULT_ATTRIBUTES" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>p-t_entity</t>
   </si>
@@ -78,6 +78,60 @@
   </si>
   <si>
     <t>default_value</t>
+  </si>
+  <si>
+    <t>#fra</t>
+  </si>
+  <si>
+    <t>abstract_other_lang_value</t>
+  </si>
+  <si>
+    <t>contact_position_other_lang_locale</t>
+  </si>
+  <si>
+    <t>p-t_entity_other_lang_locale</t>
+  </si>
+  <si>
+    <t>contact_email_other_lang_locale</t>
+  </si>
+  <si>
+    <t>keyword_other_lang_locale</t>
+  </si>
+  <si>
+    <t>reference_system</t>
+  </si>
+  <si>
+    <t>reference_system_version</t>
+  </si>
+  <si>
+    <t>EPSG</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>dataset_title_other_lang_locale</t>
+  </si>
+  <si>
+    <t>** Cet élément de métadonnées provenant d’une tierce partie a été traduit à l'aide d'un outil de traduction automatisée (Amazon Translate). Pour signaler toute anomalie, veuillez communiquer avec nous à nrcan.fgp-pgf.rncan@canada.ca **</t>
+  </si>
+  <si>
+    <t>abstract_other_lang_warning</t>
+  </si>
+  <si>
+    <t>abstract_other_lang_locale</t>
+  </si>
+  <si>
+    <t>distribution_format_version</t>
+  </si>
+  <si>
+    <t>transfert_option_name_other_lang_locale</t>
+  </si>
+  <si>
+    <t>service_other_lang_locale</t>
+  </si>
+  <si>
+    <t>p-t_license_other_lang_locale</t>
   </si>
 </sst>
 </file>
@@ -133,7 +187,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -395,15 +449,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" customWidth="1"/>
+    <col min="1" max="1" width="59.42578125" customWidth="1"/>
     <col min="2" max="2" width="74.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -479,6 +533,118 @@
         <v>16</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
